--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -7662,10 +7662,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
@@ -7864,7 +7870,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8137,7 +8143,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="14055" windowHeight="9405" activeTab="4"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="14055" windowHeight="9405" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="StolenCars" sheetId="3" r:id="rId3"/>
     <sheet name="GoPlay" sheetId="4" r:id="rId4"/>
     <sheet name="Late" sheetId="5" r:id="rId5"/>
+    <sheet name="Spam" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
   <si>
     <t>Day</t>
   </si>
@@ -189,6 +190,45 @@
   </si>
   <si>
     <t>Cloudy</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Borrow Money</t>
+  </si>
+  <si>
+    <t>Spam</t>
+  </si>
+  <si>
+    <t>Dear Friend</t>
+  </si>
+  <si>
+    <t>Friend Money</t>
+  </si>
+  <si>
+    <t>Dear Money</t>
+  </si>
+  <si>
+    <t>Hello Dear</t>
+  </si>
+  <si>
+    <t>Borrow Friend</t>
+  </si>
+  <si>
+    <t>Buy Money</t>
+  </si>
+  <si>
+    <t>Buy Friend</t>
+  </si>
+  <si>
+    <t>Borrow Dear</t>
+  </si>
+  <si>
+    <t>Buy Milk</t>
   </si>
 </sst>
 </file>
@@ -8142,8 +8182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8305,4 +8345,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -228,7 +228,7 @@
     <t>Borrow Dear</t>
   </si>
   <si>
-    <t>Buy Milk</t>
+    <t>Dear Buy Milk</t>
   </si>
 </sst>
 </file>
@@ -8352,7 +8352,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="14055" windowHeight="9405" activeTab="5"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="14055" windowHeight="9405" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="GoPlay" sheetId="4" r:id="rId4"/>
     <sheet name="Late" sheetId="5" r:id="rId5"/>
     <sheet name="Spam" sheetId="6" r:id="rId6"/>
+    <sheet name="Mouse" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
   <si>
     <t>Day</t>
   </si>
@@ -229,6 +230,12 @@
   </si>
   <si>
     <t>Dear Buy Milk</t>
+  </si>
+  <si>
+    <t>MouseWeight</t>
+  </si>
+  <si>
+    <t>MouseSize</t>
   </si>
 </sst>
 </file>
@@ -8351,7 +8358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -8451,4 +8458,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.85</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.5</v>
+      </c>
+      <c r="B3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.2</v>
+      </c>
+      <c r="B5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4.3</v>
+      </c>
+      <c r="B6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5.2</v>
+      </c>
+      <c r="B7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5.96</v>
+      </c>
+      <c r="B8">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5.8</v>
+      </c>
+      <c r="B9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6.1</v>
+      </c>
+      <c r="B10">
+        <v>6.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="14055" windowHeight="9405" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="14055" windowHeight="9405" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Late" sheetId="5" r:id="rId5"/>
     <sheet name="Spam" sheetId="6" r:id="rId6"/>
     <sheet name="Mouse" sheetId="7" r:id="rId7"/>
+    <sheet name="Weight" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
   <si>
     <t>Day</t>
   </si>
@@ -236,6 +237,12 @@
   </si>
   <si>
     <t>MouseSize</t>
+  </si>
+  <si>
+    <t>Height(cm)</t>
+  </si>
+  <si>
+    <t>Weight(kg)</t>
   </si>
 </sst>
 </file>
@@ -8464,8 +8471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8557,4 +8564,150 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>147</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>150</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>153</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>155</v>
+      </c>
+      <c r="B5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>158</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>160</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>163</v>
+      </c>
+      <c r="B8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>165</v>
+      </c>
+      <c r="B9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>168</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>170</v>
+      </c>
+      <c r="B11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>173</v>
+      </c>
+      <c r="B12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>175</v>
+      </c>
+      <c r="B13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>180</v>
+      </c>
+      <c r="B15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>183</v>
+      </c>
+      <c r="B16">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -8571,7 +8571,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8664,7 +8664,7 @@
         <v>170</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Docs\Git\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="14055" windowHeight="9405" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="516" yWindow="588" windowWidth="14052" windowHeight="9408" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -248,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$]#,##0"/>
   </numFmts>
@@ -315,6 +320,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -527,9 +535,9 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44745</v>
       </c>
@@ -551,7 +559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44752</v>
       </c>
@@ -562,7 +570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44759</v>
       </c>
@@ -573,7 +581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44766</v>
       </c>
@@ -584,7 +592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44774</v>
       </c>
@@ -595,7 +603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44781</v>
       </c>
@@ -606,7 +614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44788</v>
       </c>
@@ -617,7 +625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44795</v>
       </c>
@@ -628,7 +636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44802</v>
       </c>
@@ -639,3963 +647,3963 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="5"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="5"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="5"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="5"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="5"/>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="5"/>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="5"/>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="5"/>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="5"/>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="5"/>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="5"/>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="5"/>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="5"/>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="5"/>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="5"/>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="5"/>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="5"/>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="5"/>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="5"/>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="5"/>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="5"/>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="5"/>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="5"/>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="5"/>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="5"/>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="5"/>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="5"/>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="5"/>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="5"/>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="5"/>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="5"/>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="5"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="5"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="5"/>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="5"/>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="5"/>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="5"/>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="5"/>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="5"/>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="5"/>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="5"/>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="5"/>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="5"/>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="5"/>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="5"/>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="5"/>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="5"/>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="5"/>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="5"/>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="5"/>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="5"/>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="5"/>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="5"/>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="5"/>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="5"/>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="5"/>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="5"/>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="5"/>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="5"/>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="5"/>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="5"/>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="5"/>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="5"/>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="5"/>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="5"/>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="5"/>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="5"/>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="5"/>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="5"/>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="5"/>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="5"/>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="5"/>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="5"/>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="5"/>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="5"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="5"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="5"/>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="5"/>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="5"/>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="5"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="5"/>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="5"/>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="5"/>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="5"/>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="5"/>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="5"/>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="5"/>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="5"/>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="5"/>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="5"/>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="5"/>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="5"/>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="5"/>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="5"/>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="5"/>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="5"/>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="5"/>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="5"/>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="5"/>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="5"/>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="5"/>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="5"/>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="5"/>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="5"/>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="5"/>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="5"/>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="5"/>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="5"/>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="5"/>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="5"/>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="5"/>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="5"/>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="5"/>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="5"/>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="5"/>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="5"/>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="5"/>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="5"/>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="5"/>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="5"/>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="5"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="5"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="5"/>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="5"/>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="5"/>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="5"/>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="5"/>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="5"/>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="5"/>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="5"/>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="5"/>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="5"/>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="5"/>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="5"/>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="5"/>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="5"/>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="5"/>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="5"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="5"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="5"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="5"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="5"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="5"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="5"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="5"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="5"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="5"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="5"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="5"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="5"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="5"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="5"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="5"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="5"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="5"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="5"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="5"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="5"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="5"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="5"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="5"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="5"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="5"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="5"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
       <c r="B611" s="5"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
       <c r="B612" s="5"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
       <c r="B613" s="5"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
       <c r="B614" s="5"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
       <c r="B615" s="5"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
       <c r="B616" s="5"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
       <c r="B617" s="5"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
       <c r="B618" s="5"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
       <c r="B619" s="5"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
       <c r="B620" s="5"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
       <c r="B621" s="5"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
       <c r="B622" s="5"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
       <c r="B623" s="5"/>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
       <c r="B624" s="5"/>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
       <c r="B625" s="5"/>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
       <c r="B626" s="5"/>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
       <c r="B627" s="5"/>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
       <c r="B628" s="5"/>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
       <c r="B629" s="5"/>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
       <c r="B630" s="5"/>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
       <c r="B631" s="5"/>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
       <c r="B632" s="5"/>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
       <c r="B633" s="5"/>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
       <c r="B634" s="5"/>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
       <c r="B635" s="5"/>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
       <c r="B636" s="5"/>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
       <c r="B637" s="5"/>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
       <c r="B638" s="5"/>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
       <c r="B639" s="5"/>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
       <c r="B640" s="5"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
       <c r="B641" s="5"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
       <c r="B642" s="5"/>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
       <c r="B643" s="5"/>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
       <c r="B644" s="5"/>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
       <c r="B645" s="5"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
       <c r="B646" s="5"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
       <c r="B647" s="5"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
       <c r="B648" s="5"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
       <c r="B649" s="5"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
       <c r="B650" s="5"/>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
       <c r="B651" s="5"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
       <c r="B652" s="5"/>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
       <c r="B653" s="5"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
       <c r="B654" s="5"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
       <c r="B655" s="5"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
       <c r="B656" s="5"/>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
       <c r="B657" s="5"/>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
       <c r="B658" s="5"/>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
       <c r="B659" s="5"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
       <c r="B660" s="5"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
       <c r="B661" s="5"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
       <c r="B662" s="5"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
       <c r="B663" s="5"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
       <c r="B664" s="5"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
       <c r="B665" s="5"/>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
       <c r="B666" s="5"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
       <c r="B667" s="5"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
       <c r="B668" s="5"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
       <c r="B669" s="5"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
       <c r="B670" s="5"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
       <c r="B671" s="5"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
       <c r="B672" s="5"/>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
       <c r="B673" s="5"/>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
       <c r="B674" s="5"/>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
       <c r="B675" s="5"/>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
       <c r="B676" s="5"/>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
       <c r="B677" s="5"/>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
       <c r="B678" s="5"/>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
       <c r="B679" s="5"/>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
       <c r="B680" s="5"/>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
       <c r="B681" s="5"/>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
       <c r="B682" s="5"/>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
       <c r="B683" s="5"/>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
       <c r="B684" s="5"/>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
       <c r="B685" s="5"/>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
       <c r="B686" s="5"/>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
       <c r="B687" s="5"/>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
       <c r="B688" s="5"/>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
       <c r="B689" s="5"/>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
       <c r="B690" s="5"/>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
       <c r="B691" s="5"/>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
       <c r="B692" s="5"/>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
       <c r="B693" s="5"/>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
       <c r="B694" s="5"/>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
       <c r="B695" s="5"/>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
       <c r="B696" s="5"/>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
       <c r="B697" s="5"/>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
       <c r="B698" s="5"/>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
       <c r="B699" s="5"/>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
       <c r="B700" s="5"/>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
       <c r="B701" s="5"/>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
       <c r="B702" s="5"/>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
       <c r="B703" s="5"/>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
       <c r="B704" s="5"/>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
       <c r="B705" s="5"/>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
       <c r="B706" s="5"/>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
       <c r="B707" s="5"/>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
       <c r="B708" s="5"/>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
       <c r="B709" s="5"/>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
       <c r="B710" s="5"/>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
       <c r="B711" s="5"/>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
       <c r="B712" s="5"/>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
       <c r="B713" s="5"/>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
       <c r="B714" s="5"/>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
       <c r="B715" s="5"/>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
       <c r="B716" s="5"/>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
       <c r="B717" s="5"/>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
       <c r="B718" s="5"/>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
       <c r="B719" s="5"/>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
       <c r="B720" s="5"/>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
       <c r="B721" s="5"/>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
       <c r="B722" s="5"/>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
       <c r="B723" s="5"/>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
       <c r="B724" s="5"/>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
       <c r="B725" s="5"/>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
       <c r="B726" s="5"/>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
       <c r="B727" s="5"/>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
       <c r="B728" s="5"/>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
       <c r="B729" s="5"/>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
       <c r="B730" s="5"/>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
       <c r="B731" s="5"/>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
       <c r="B732" s="5"/>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
       <c r="B733" s="5"/>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
       <c r="B734" s="5"/>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
       <c r="B735" s="5"/>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
       <c r="B736" s="5"/>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
       <c r="B737" s="5"/>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
       <c r="B738" s="5"/>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
       <c r="B739" s="5"/>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
       <c r="B740" s="5"/>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
       <c r="B741" s="5"/>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
       <c r="B742" s="5"/>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
       <c r="B743" s="5"/>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
       <c r="B744" s="5"/>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
       <c r="B745" s="5"/>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
       <c r="B746" s="5"/>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
       <c r="B747" s="5"/>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
       <c r="B748" s="5"/>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
       <c r="B749" s="5"/>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
       <c r="B750" s="5"/>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
       <c r="B751" s="5"/>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
       <c r="B752" s="5"/>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
       <c r="B753" s="5"/>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
       <c r="B754" s="5"/>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
       <c r="B755" s="5"/>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
       <c r="B756" s="5"/>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
       <c r="B757" s="5"/>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
       <c r="B758" s="5"/>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
       <c r="B759" s="5"/>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
       <c r="B760" s="5"/>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
       <c r="B761" s="5"/>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
       <c r="B762" s="5"/>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
       <c r="B763" s="5"/>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
       <c r="B764" s="5"/>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
       <c r="B765" s="5"/>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
       <c r="B766" s="5"/>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
       <c r="B767" s="5"/>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
       <c r="B768" s="5"/>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
       <c r="B769" s="5"/>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
       <c r="B770" s="5"/>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
       <c r="B771" s="5"/>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
       <c r="B772" s="5"/>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
       <c r="B773" s="5"/>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
       <c r="B774" s="5"/>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
       <c r="B775" s="5"/>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
       <c r="B776" s="5"/>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
       <c r="B777" s="5"/>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
       <c r="B778" s="5"/>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
       <c r="B779" s="5"/>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
       <c r="B780" s="5"/>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
       <c r="B781" s="5"/>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
       <c r="B782" s="5"/>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
       <c r="B783" s="5"/>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
       <c r="B784" s="5"/>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
       <c r="B785" s="5"/>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
       <c r="B786" s="5"/>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
       <c r="B787" s="5"/>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
       <c r="B788" s="5"/>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
       <c r="B789" s="5"/>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
       <c r="B790" s="5"/>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
       <c r="B791" s="5"/>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
       <c r="B792" s="5"/>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
       <c r="B793" s="5"/>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
       <c r="B794" s="5"/>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
       <c r="B795" s="5"/>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
       <c r="B796" s="5"/>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
       <c r="B797" s="5"/>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
       <c r="B798" s="5"/>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
       <c r="B799" s="5"/>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
       <c r="B800" s="5"/>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
       <c r="B801" s="5"/>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
       <c r="B802" s="5"/>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
       <c r="B803" s="5"/>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
       <c r="B804" s="5"/>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
       <c r="B805" s="5"/>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
       <c r="B806" s="5"/>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
       <c r="B807" s="5"/>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
       <c r="B808" s="5"/>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
       <c r="B809" s="5"/>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
       <c r="B810" s="5"/>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
       <c r="B811" s="5"/>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
       <c r="B812" s="5"/>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
       <c r="B813" s="5"/>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
       <c r="B814" s="5"/>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
       <c r="B815" s="5"/>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
       <c r="B816" s="5"/>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
       <c r="B817" s="5"/>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
       <c r="B818" s="5"/>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
       <c r="B819" s="5"/>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
       <c r="B820" s="5"/>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
       <c r="B821" s="5"/>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
       <c r="B822" s="5"/>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
       <c r="B823" s="5"/>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
       <c r="B824" s="5"/>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
       <c r="B825" s="5"/>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
       <c r="B826" s="5"/>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
       <c r="B827" s="5"/>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
       <c r="B828" s="5"/>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
       <c r="B829" s="5"/>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
       <c r="B830" s="5"/>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
       <c r="B831" s="5"/>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
       <c r="B832" s="5"/>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
       <c r="B833" s="5"/>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
       <c r="B834" s="5"/>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
       <c r="B835" s="5"/>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
       <c r="B836" s="5"/>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
       <c r="B837" s="5"/>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
       <c r="B838" s="5"/>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
       <c r="B839" s="5"/>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
       <c r="B840" s="5"/>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
       <c r="B841" s="5"/>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
       <c r="B842" s="5"/>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
       <c r="B843" s="5"/>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
       <c r="B844" s="5"/>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
       <c r="B845" s="5"/>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
       <c r="B846" s="5"/>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
       <c r="B847" s="5"/>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
       <c r="B848" s="5"/>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
       <c r="B849" s="5"/>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
       <c r="B850" s="5"/>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
       <c r="B851" s="5"/>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
       <c r="B852" s="5"/>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
       <c r="B853" s="5"/>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
       <c r="B854" s="5"/>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
       <c r="B855" s="5"/>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
       <c r="B856" s="5"/>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
       <c r="B857" s="5"/>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
       <c r="B858" s="5"/>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
       <c r="B859" s="5"/>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
       <c r="B860" s="5"/>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
       <c r="B861" s="5"/>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
       <c r="B862" s="5"/>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
       <c r="B863" s="5"/>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
       <c r="B864" s="5"/>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
       <c r="B865" s="5"/>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
       <c r="B866" s="5"/>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
       <c r="B867" s="5"/>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
       <c r="B868" s="5"/>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
       <c r="B869" s="5"/>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
       <c r="B870" s="5"/>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
       <c r="B871" s="5"/>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
       <c r="B872" s="5"/>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
       <c r="B873" s="5"/>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
       <c r="B874" s="5"/>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
       <c r="B875" s="5"/>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
       <c r="B876" s="5"/>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
       <c r="B877" s="5"/>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
       <c r="B878" s="5"/>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
       <c r="B879" s="5"/>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
       <c r="B880" s="5"/>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
       <c r="B881" s="5"/>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
       <c r="B882" s="5"/>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
       <c r="B883" s="5"/>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
       <c r="B884" s="5"/>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
       <c r="B885" s="5"/>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
       <c r="B886" s="5"/>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
       <c r="B887" s="5"/>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
       <c r="B888" s="5"/>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
       <c r="B889" s="5"/>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
       <c r="B890" s="5"/>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
       <c r="B891" s="5"/>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
       <c r="B892" s="5"/>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
       <c r="B893" s="5"/>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
       <c r="B894" s="5"/>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
       <c r="B895" s="5"/>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
       <c r="B896" s="5"/>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
       <c r="B897" s="5"/>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
       <c r="B898" s="5"/>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
       <c r="B899" s="5"/>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
       <c r="B900" s="5"/>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
       <c r="B901" s="5"/>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
       <c r="B902" s="5"/>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
       <c r="B903" s="5"/>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
       <c r="B904" s="5"/>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
       <c r="B905" s="5"/>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
       <c r="B906" s="5"/>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
       <c r="B907" s="5"/>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
       <c r="B908" s="5"/>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
       <c r="B909" s="5"/>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
       <c r="B910" s="5"/>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
       <c r="B911" s="5"/>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
       <c r="B912" s="5"/>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
       <c r="B913" s="5"/>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
       <c r="B914" s="5"/>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
       <c r="B915" s="5"/>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
       <c r="B916" s="5"/>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
       <c r="B917" s="5"/>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
       <c r="B918" s="5"/>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
       <c r="B919" s="5"/>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
       <c r="B920" s="5"/>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
       <c r="B921" s="5"/>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
       <c r="B922" s="5"/>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
       <c r="B923" s="5"/>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
       <c r="B924" s="5"/>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
       <c r="B925" s="5"/>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
       <c r="B926" s="5"/>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
       <c r="B927" s="5"/>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
       <c r="B928" s="5"/>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
       <c r="B929" s="5"/>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
       <c r="B930" s="5"/>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
       <c r="B931" s="5"/>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
       <c r="B932" s="5"/>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
       <c r="B933" s="5"/>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
       <c r="B934" s="5"/>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
       <c r="B935" s="5"/>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
       <c r="B936" s="5"/>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
       <c r="B937" s="5"/>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
       <c r="B938" s="5"/>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
       <c r="B939" s="5"/>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
       <c r="B940" s="5"/>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
       <c r="B941" s="5"/>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
       <c r="B942" s="5"/>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
       <c r="B943" s="5"/>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
       <c r="B944" s="5"/>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
       <c r="B945" s="5"/>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
       <c r="B946" s="5"/>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
       <c r="B947" s="5"/>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
       <c r="B948" s="5"/>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
       <c r="B949" s="5"/>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
       <c r="B950" s="5"/>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
       <c r="B951" s="5"/>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
       <c r="B952" s="5"/>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
       <c r="B953" s="5"/>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
       <c r="B954" s="5"/>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
       <c r="B955" s="5"/>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
       <c r="B956" s="5"/>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
       <c r="B957" s="5"/>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
       <c r="B958" s="5"/>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
       <c r="B959" s="5"/>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
       <c r="B960" s="5"/>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
       <c r="B961" s="5"/>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
       <c r="B962" s="5"/>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
       <c r="B963" s="5"/>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
       <c r="B964" s="5"/>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
       <c r="B965" s="5"/>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
       <c r="B966" s="5"/>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
       <c r="B967" s="5"/>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
       <c r="B968" s="5"/>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
       <c r="B969" s="5"/>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
       <c r="B970" s="5"/>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
       <c r="B971" s="5"/>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
       <c r="B972" s="5"/>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
       <c r="B973" s="5"/>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
       <c r="B974" s="5"/>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
       <c r="B975" s="5"/>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
       <c r="B976" s="5"/>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
       <c r="B977" s="5"/>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
       <c r="B978" s="5"/>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
       <c r="B979" s="5"/>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
       <c r="B980" s="5"/>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
       <c r="B981" s="5"/>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
       <c r="B982" s="5"/>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
       <c r="B983" s="5"/>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
       <c r="B984" s="5"/>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
       <c r="B985" s="5"/>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
       <c r="B986" s="5"/>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
       <c r="B987" s="5"/>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A988" s="4"/>
       <c r="B988" s="5"/>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
       <c r="B989" s="5"/>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A990" s="4"/>
       <c r="B990" s="5"/>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A991" s="4"/>
       <c r="B991" s="5"/>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A992" s="4"/>
       <c r="B992" s="5"/>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A993" s="4"/>
       <c r="B993" s="5"/>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A994" s="4"/>
       <c r="B994" s="5"/>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A995" s="4"/>
       <c r="B995" s="5"/>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A996" s="4"/>
       <c r="B996" s="5"/>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A997" s="4"/>
       <c r="B997" s="5"/>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A998" s="4"/>
       <c r="B998" s="5"/>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A999" s="4"/>
       <c r="B999" s="5"/>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1000" s="4"/>
       <c r="B1000" s="5"/>
     </row>
@@ -4615,12 +4623,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" style="8"/>
+    <col min="2" max="2" width="12.5546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -4628,7 +4636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -4636,7 +4644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -4644,7 +4652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -4652,7 +4660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>7</v>
       </c>
@@ -4660,7 +4668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>8</v>
       </c>
@@ -4668,7 +4676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>9</v>
       </c>
@@ -4676,7 +4684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -4684,7 +4692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>11</v>
       </c>
@@ -4692,7 +4700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>12</v>
       </c>
@@ -4700,7 +4708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>13</v>
       </c>
@@ -4708,7 +4716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>14</v>
       </c>
@@ -4716,7 +4724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>15</v>
       </c>
@@ -4724,7 +4732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>16</v>
       </c>
@@ -4732,7 +4740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>17</v>
       </c>
@@ -4740,7 +4748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>18</v>
       </c>
@@ -4748,7 +4756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>19</v>
       </c>
@@ -4756,2953 +4764,2953 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B781" s="7"/>
     </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B782" s="7"/>
     </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B783" s="7"/>
     </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B784" s="7"/>
     </row>
-    <row r="785" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B785" s="7"/>
     </row>
-    <row r="786" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B786" s="7"/>
     </row>
-    <row r="787" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B787" s="7"/>
     </row>
-    <row r="788" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B788" s="7"/>
     </row>
-    <row r="789" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B789" s="7"/>
     </row>
-    <row r="790" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B790" s="7"/>
     </row>
-    <row r="791" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B791" s="7"/>
     </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B792" s="7"/>
     </row>
-    <row r="793" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B793" s="7"/>
     </row>
-    <row r="794" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B794" s="7"/>
     </row>
-    <row r="795" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B795" s="7"/>
     </row>
-    <row r="796" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B796" s="7"/>
     </row>
-    <row r="797" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B797" s="7"/>
     </row>
-    <row r="798" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B798" s="7"/>
     </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B799" s="7"/>
     </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B800" s="7"/>
     </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B801" s="7"/>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B802" s="7"/>
     </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B803" s="7"/>
     </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B804" s="7"/>
     </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B805" s="7"/>
     </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B806" s="7"/>
     </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B807" s="7"/>
     </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B808" s="7"/>
     </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B809" s="7"/>
     </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B810" s="7"/>
     </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B811" s="7"/>
     </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B812" s="7"/>
     </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B813" s="7"/>
     </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B814" s="7"/>
     </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B815" s="7"/>
     </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B816" s="7"/>
     </row>
-    <row r="817" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B817" s="7"/>
     </row>
-    <row r="818" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B818" s="7"/>
     </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B819" s="7"/>
     </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B820" s="7"/>
     </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B821" s="7"/>
     </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B822" s="7"/>
     </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B823" s="7"/>
     </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B824" s="7"/>
     </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B825" s="7"/>
     </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B826" s="7"/>
     </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B827" s="7"/>
     </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B828" s="7"/>
     </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B829" s="7"/>
     </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B830" s="7"/>
     </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B831" s="7"/>
     </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B832" s="7"/>
     </row>
-    <row r="833" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B833" s="7"/>
     </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B834" s="7"/>
     </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B835" s="7"/>
     </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B836" s="7"/>
     </row>
-    <row r="837" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B837" s="7"/>
     </row>
-    <row r="838" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B838" s="7"/>
     </row>
-    <row r="839" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B839" s="7"/>
     </row>
-    <row r="840" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B840" s="7"/>
     </row>
-    <row r="841" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B841" s="7"/>
     </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B842" s="7"/>
     </row>
-    <row r="843" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B843" s="7"/>
     </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B844" s="7"/>
     </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B845" s="7"/>
     </row>
-    <row r="846" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B846" s="7"/>
     </row>
-    <row r="847" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B847" s="7"/>
     </row>
-    <row r="848" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B848" s="7"/>
     </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B849" s="7"/>
     </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B850" s="7"/>
     </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B851" s="7"/>
     </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B852" s="7"/>
     </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B853" s="7"/>
     </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B854" s="7"/>
     </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B855" s="7"/>
     </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B856" s="7"/>
     </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B857" s="7"/>
     </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B858" s="7"/>
     </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B859" s="7"/>
     </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B860" s="7"/>
     </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B861" s="7"/>
     </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B862" s="7"/>
     </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B863" s="7"/>
     </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B864" s="7"/>
     </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B865" s="7"/>
     </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B866" s="7"/>
     </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B867" s="7"/>
     </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B868" s="7"/>
     </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B869" s="7"/>
     </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B870" s="7"/>
     </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B871" s="7"/>
     </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B872" s="7"/>
     </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B873" s="7"/>
     </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B874" s="7"/>
     </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B875" s="7"/>
     </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B876" s="7"/>
     </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B877" s="7"/>
     </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B878" s="7"/>
     </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B879" s="7"/>
     </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B880" s="7"/>
     </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B881" s="7"/>
     </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B882" s="7"/>
     </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B883" s="7"/>
     </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B884" s="7"/>
     </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B885" s="7"/>
     </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B886" s="7"/>
     </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B887" s="7"/>
     </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B888" s="7"/>
     </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B889" s="7"/>
     </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B890" s="7"/>
     </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B891" s="7"/>
     </row>
-    <row r="892" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B892" s="7"/>
     </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B893" s="7"/>
     </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B894" s="7"/>
     </row>
-    <row r="895" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B895" s="7"/>
     </row>
-    <row r="896" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B896" s="7"/>
     </row>
-    <row r="897" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B897" s="7"/>
     </row>
-    <row r="898" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B898" s="7"/>
     </row>
-    <row r="899" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B899" s="7"/>
     </row>
-    <row r="900" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B900" s="7"/>
     </row>
-    <row r="901" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B901" s="7"/>
     </row>
-    <row r="902" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B902" s="7"/>
     </row>
-    <row r="903" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B903" s="7"/>
     </row>
-    <row r="904" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B904" s="7"/>
     </row>
-    <row r="905" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B905" s="7"/>
     </row>
-    <row r="906" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B906" s="7"/>
     </row>
-    <row r="907" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B907" s="7"/>
     </row>
-    <row r="908" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B908" s="7"/>
     </row>
-    <row r="909" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B909" s="7"/>
     </row>
-    <row r="910" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B910" s="7"/>
     </row>
-    <row r="911" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B911" s="7"/>
     </row>
-    <row r="912" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B912" s="7"/>
     </row>
-    <row r="913" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B913" s="7"/>
     </row>
-    <row r="914" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B914" s="7"/>
     </row>
-    <row r="915" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B915" s="7"/>
     </row>
-    <row r="916" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B916" s="7"/>
     </row>
-    <row r="917" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B917" s="7"/>
     </row>
-    <row r="918" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B918" s="7"/>
     </row>
-    <row r="919" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B919" s="7"/>
     </row>
-    <row r="920" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B920" s="7"/>
     </row>
-    <row r="921" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B921" s="7"/>
     </row>
-    <row r="922" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B922" s="7"/>
     </row>
-    <row r="923" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B923" s="7"/>
     </row>
-    <row r="924" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B924" s="7"/>
     </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B925" s="7"/>
     </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B926" s="7"/>
     </row>
-    <row r="927" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B927" s="7"/>
     </row>
-    <row r="928" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B928" s="7"/>
     </row>
-    <row r="929" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B929" s="7"/>
     </row>
-    <row r="930" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B930" s="7"/>
     </row>
-    <row r="931" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B931" s="7"/>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B932" s="7"/>
     </row>
-    <row r="933" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B933" s="7"/>
     </row>
-    <row r="934" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B934" s="7"/>
     </row>
-    <row r="935" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B935" s="7"/>
     </row>
-    <row r="936" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B936" s="7"/>
     </row>
-    <row r="937" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B937" s="7"/>
     </row>
-    <row r="938" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B938" s="7"/>
     </row>
-    <row r="939" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B939" s="7"/>
     </row>
-    <row r="940" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B940" s="7"/>
     </row>
-    <row r="941" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B941" s="7"/>
     </row>
-    <row r="942" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B942" s="7"/>
     </row>
-    <row r="943" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B943" s="7"/>
     </row>
-    <row r="944" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B944" s="7"/>
     </row>
-    <row r="945" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B945" s="7"/>
     </row>
-    <row r="946" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B946" s="7"/>
     </row>
-    <row r="947" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B947" s="7"/>
     </row>
-    <row r="948" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B948" s="7"/>
     </row>
-    <row r="949" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B949" s="7"/>
     </row>
-    <row r="950" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B950" s="7"/>
     </row>
-    <row r="951" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B951" s="7"/>
     </row>
-    <row r="952" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B952" s="7"/>
     </row>
-    <row r="953" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B953" s="7"/>
     </row>
-    <row r="954" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B954" s="7"/>
     </row>
-    <row r="955" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B955" s="7"/>
     </row>
-    <row r="956" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B956" s="7"/>
     </row>
-    <row r="957" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B957" s="7"/>
     </row>
-    <row r="958" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B958" s="7"/>
     </row>
-    <row r="959" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B959" s="7"/>
     </row>
-    <row r="960" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B960" s="7"/>
     </row>
-    <row r="961" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B961" s="7"/>
     </row>
-    <row r="962" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B962" s="7"/>
     </row>
-    <row r="963" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B963" s="7"/>
     </row>
-    <row r="964" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B964" s="7"/>
     </row>
-    <row r="965" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B965" s="7"/>
     </row>
-    <row r="966" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B966" s="7"/>
     </row>
-    <row r="967" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B967" s="7"/>
     </row>
-    <row r="968" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B968" s="7"/>
     </row>
-    <row r="969" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B969" s="7"/>
     </row>
-    <row r="970" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B970" s="7"/>
     </row>
-    <row r="971" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B971" s="7"/>
     </row>
-    <row r="972" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B972" s="7"/>
     </row>
-    <row r="973" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="973" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B973" s="7"/>
     </row>
-    <row r="974" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="974" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B974" s="7"/>
     </row>
-    <row r="975" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="975" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B975" s="7"/>
     </row>
-    <row r="976" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="976" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B976" s="7"/>
     </row>
-    <row r="977" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="977" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B977" s="7"/>
     </row>
-    <row r="978" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B978" s="7"/>
     </row>
-    <row r="979" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="979" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B979" s="7"/>
     </row>
-    <row r="980" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="980" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B980" s="7"/>
     </row>
-    <row r="981" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="981" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B981" s="7"/>
     </row>
-    <row r="982" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="982" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B982" s="7"/>
     </row>
-    <row r="983" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="983" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B983" s="7"/>
     </row>
-    <row r="984" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="984" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B984" s="7"/>
     </row>
-    <row r="985" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="985" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B985" s="7"/>
     </row>
-    <row r="986" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="986" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B986" s="7"/>
     </row>
-    <row r="987" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="987" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B987" s="7"/>
     </row>
-    <row r="988" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="988" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B988" s="7"/>
     </row>
-    <row r="989" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B989" s="7"/>
     </row>
-    <row r="990" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="990" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B990" s="7"/>
     </row>
-    <row r="991" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="991" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B991" s="7"/>
     </row>
-    <row r="992" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="992" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B992" s="7"/>
     </row>
-    <row r="993" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="993" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B993" s="7"/>
     </row>
-    <row r="994" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="994" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B994" s="7"/>
     </row>
-    <row r="995" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="995" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B995" s="7"/>
     </row>
-    <row r="996" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="996" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B996" s="7"/>
     </row>
-    <row r="997" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="997" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B997" s="7"/>
     </row>
-    <row r="998" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="998" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B998" s="7"/>
     </row>
-    <row r="999" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="999" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B999" s="7"/>
     </row>
-    <row r="1000" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1000" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1000" s="7"/>
     </row>
   </sheetData>
@@ -7719,15 +7727,15 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -7744,7 +7752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -7761,7 +7769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -7778,7 +7786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -7795,7 +7803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -7812,7 +7820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -7829,7 +7837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -7846,7 +7854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -7863,7 +7871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -7880,7 +7888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -7897,7 +7905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -7927,12 +7935,12 @@
       <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -7949,7 +7957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -7966,7 +7974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -7983,7 +7991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -8000,7 +8008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -8017,7 +8025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -8034,7 +8042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -8051,7 +8059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -8068,7 +8076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -8085,7 +8093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -8102,7 +8110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -8119,7 +8127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -8136,7 +8144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -8153,7 +8161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -8170,7 +8178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -8200,9 +8208,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -8216,7 +8224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -8230,7 +8238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -8244,7 +8252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -8258,7 +8266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -8272,7 +8280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -8286,7 +8294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -8300,7 +8308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -8314,7 +8322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8328,7 +8336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -8342,7 +8350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -8369,12 +8377,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -8382,7 +8390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -8390,7 +8398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -8398,7 +8406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -8406,7 +8414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -8414,7 +8422,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -8422,7 +8430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -8430,7 +8438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -8438,7 +8446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -8446,7 +8454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -8454,7 +8462,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -8475,13 +8483,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -8489,7 +8497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.85</v>
       </c>
@@ -8497,7 +8505,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -8505,7 +8513,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.2000000000000002</v>
       </c>
@@ -8513,7 +8521,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.2</v>
       </c>
@@ -8521,7 +8529,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.3</v>
       </c>
@@ -8529,7 +8537,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.2</v>
       </c>
@@ -8537,7 +8545,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.96</v>
       </c>
@@ -8545,7 +8553,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.8</v>
       </c>
@@ -8553,7 +8561,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6.1</v>
       </c>
@@ -8568,18 +8576,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -8587,7 +8595,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>147</v>
       </c>
@@ -8595,7 +8603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>150</v>
       </c>
@@ -8603,7 +8611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>153</v>
       </c>
@@ -8611,7 +8619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>155</v>
       </c>
@@ -8619,7 +8627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>158</v>
       </c>
@@ -8627,7 +8635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>160</v>
       </c>
@@ -8635,7 +8643,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>163</v>
       </c>
@@ -8643,7 +8651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>165</v>
       </c>
@@ -8651,59 +8659,67 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>168</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>170</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>173</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>175</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>178</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>180</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>183</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>68</v>
       </c>
     </row>

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="516" yWindow="588" windowWidth="14052" windowHeight="9408" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="516" yWindow="588" windowWidth="14052" windowHeight="9408" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Spam" sheetId="6" r:id="rId6"/>
     <sheet name="Mouse" sheetId="7" r:id="rId7"/>
     <sheet name="Weight" sheetId="8" r:id="rId8"/>
+    <sheet name="WeightForMultiLR" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
   <si>
     <t>Day</t>
   </si>
@@ -248,6 +249,15 @@
   </si>
   <si>
     <t>Weight(kg)</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>TailLength</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -8578,7 +8588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -8726,4 +8736,129 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.9</v>
+      </c>
+      <c r="B2">
+        <v>0.7</v>
+      </c>
+      <c r="C2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.8</v>
+      </c>
+      <c r="B3">
+        <v>1.3</v>
+      </c>
+      <c r="C3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.4</v>
+      </c>
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3.5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.9</v>
+      </c>
+      <c r="B6">
+        <v>3.6</v>
+      </c>
+      <c r="C6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B8">
+        <v>2.9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.6</v>
+      </c>
+      <c r="B9">
+        <v>3.9</v>
+      </c>
+      <c r="C9">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6.3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>6.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="516" yWindow="588" windowWidth="14052" windowHeight="9408" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="516" yWindow="588" windowWidth="14052" windowHeight="9408" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Mouse" sheetId="7" r:id="rId7"/>
     <sheet name="Weight" sheetId="8" r:id="rId8"/>
     <sheet name="WeightForMultiLR" sheetId="9" r:id="rId9"/>
+    <sheet name="ClusterExample" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
   <si>
     <t>Day</t>
   </si>
@@ -258,6 +259,45 @@
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -4622,6 +4662,142 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8742,7 +8918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="516" yWindow="588" windowWidth="14052" windowHeight="9408" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="516" yWindow="588" windowWidth="14052" windowHeight="9408" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="Weight" sheetId="8" r:id="rId8"/>
     <sheet name="WeightForMultiLR" sheetId="9" r:id="rId9"/>
     <sheet name="ClusterExample" sheetId="10" r:id="rId10"/>
+    <sheet name="ClusterTest" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="114">
   <si>
     <t>Day</t>
   </si>
@@ -298,6 +299,78 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Ismail</t>
+  </si>
+  <si>
+    <t>Kory</t>
+  </si>
+  <si>
+    <t>Gautam</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Ranbir</t>
+  </si>
+  <si>
+    <t>Dipika</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Alisa</t>
+  </si>
+  <si>
+    <t>Sid</t>
+  </si>
+  <si>
+    <t>Tim</t>
   </si>
 </sst>
 </file>
@@ -4666,7 +4739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4791,6 +4864,274 @@
       </c>
       <c r="C11">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>137000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>58000</v>
       </c>
     </row>
   </sheetData>
